--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="PROSPECT" sheetId="1" r:id="rId1"/>
+    <sheet name="STUDENTS" sheetId="2" r:id="rId2"/>
+    <sheet name="EX-STUDENT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -34,12 +36,27 @@
     <t>sector</t>
   </si>
   <si>
+    <t>data_source</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>remark</t>
   </si>
   <si>
+    <t>extra1</t>
+  </si>
+  <si>
+    <t>extra2</t>
+  </si>
+  <si>
+    <t>extra3</t>
+  </si>
+  <si>
     <t>Joel Wolske</t>
   </si>
   <si>
@@ -98,6 +115,108 @@
   </si>
   <si>
     <t>This guy said he will pay asap</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>registration_fee</t>
+  </si>
+  <si>
+    <t>tutorial_fee</t>
+  </si>
+  <si>
+    <t>course_fee</t>
+  </si>
+  <si>
+    <t>payment_1</t>
+  </si>
+  <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>remark_1</t>
+  </si>
+  <si>
+    <t>remark_2</t>
+  </si>
+  <si>
+    <t>7059575819</t>
+  </si>
+  <si>
+    <t>Ikeja Lagos Nigeria</t>
+  </si>
+  <si>
+    <t>IPOI, IOK, KNIC</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>This guy is brilliant</t>
+  </si>
+  <si>
+    <t>He hasnt paid up all the money</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>referral_name</t>
+  </si>
+  <si>
+    <t>referral_number</t>
+  </si>
+  <si>
+    <t>referral_email</t>
+  </si>
+  <si>
+    <t>Sammy Posh</t>
+  </si>
+  <si>
+    <t>samy@posh.com</t>
+  </si>
+  <si>
+    <t>9740878636</t>
+  </si>
+  <si>
+    <t>IbSL, Posod</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Joe Boy</t>
+  </si>
+  <si>
+    <t>Timothy Foluso</t>
+  </si>
+  <si>
+    <t>9898857670</t>
+  </si>
+  <si>
+    <t>9048955737594</t>
+  </si>
+  <si>
+    <t>joe@boy.com</t>
+  </si>
+  <si>
+    <t>jorti@kb.com</t>
+  </si>
+  <si>
+    <t>The guy finish well</t>
   </si>
 </sst>
 </file>
@@ -455,13 +574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,83 +605,359 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
         <v>26</v>
       </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>8537493</v>
+      </c>
+      <c r="I2">
+        <v>343554</v>
+      </c>
+      <c r="J2">
+        <v>35457543</v>
+      </c>
+      <c r="K2">
+        <v>34342</v>
+      </c>
+      <c r="L2">
+        <v>34553</v>
+      </c>
+      <c r="M2">
+        <v>4686546</v>
+      </c>
+      <c r="N2">
+        <v>5558654</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>9900</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>49543</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="PROSPECT" sheetId="1" r:id="rId1"/>
-    <sheet name="STUDENTS" sheetId="2" r:id="rId2"/>
-    <sheet name="EX-STUDENT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +64,9 @@
     <t>Timothy Ojo</t>
   </si>
   <si>
+    <t>David Boris</t>
+  </si>
+  <si>
     <t>joeladewole3@gmail.com</t>
   </si>
   <si>
@@ -75,6 +76,9 @@
     <t>tojo@gmail.com</t>
   </si>
   <si>
+    <t>davebo@yahoo.com</t>
+  </si>
+  <si>
     <t>705957589</t>
   </si>
   <si>
@@ -102,6 +106,9 @@
     <t>FRSC</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>Not-Interested</t>
   </si>
   <si>
@@ -115,108 +122,6 @@
   </si>
   <si>
     <t>This guy said he will pay asap</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>courses</t>
-  </si>
-  <si>
-    <t>registration_fee</t>
-  </si>
-  <si>
-    <t>tutorial_fee</t>
-  </si>
-  <si>
-    <t>course_fee</t>
-  </si>
-  <si>
-    <t>payment_1</t>
-  </si>
-  <si>
-    <t>payment_2</t>
-  </si>
-  <si>
-    <t>payment_3</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>remark_1</t>
-  </si>
-  <si>
-    <t>remark_2</t>
-  </si>
-  <si>
-    <t>7059575819</t>
-  </si>
-  <si>
-    <t>Ikeja Lagos Nigeria</t>
-  </si>
-  <si>
-    <t>IPOI, IOK, KNIC</t>
-  </si>
-  <si>
-    <t>Fair</t>
-  </si>
-  <si>
-    <t>This guy is brilliant</t>
-  </si>
-  <si>
-    <t>He hasnt paid up all the money</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>referral_name</t>
-  </si>
-  <si>
-    <t>referral_number</t>
-  </si>
-  <si>
-    <t>referral_email</t>
-  </si>
-  <si>
-    <t>Sammy Posh</t>
-  </si>
-  <si>
-    <t>samy@posh.com</t>
-  </si>
-  <si>
-    <t>9740878636</t>
-  </si>
-  <si>
-    <t>IbSL, Posod</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Joe Boy</t>
-  </si>
-  <si>
-    <t>Timothy Foluso</t>
-  </si>
-  <si>
-    <t>9898857670</t>
-  </si>
-  <si>
-    <t>9048955737594</t>
-  </si>
-  <si>
-    <t>joe@boy.com</t>
-  </si>
-  <si>
-    <t>jorti@kb.com</t>
-  </si>
-  <si>
-    <t>The guy finish well</t>
   </si>
 </sst>
 </file>
@@ -574,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,22 +534,22 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -655,22 +560,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -681,283 +586,45 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2">
-        <v>8537493</v>
-      </c>
-      <c r="I2">
-        <v>343554</v>
-      </c>
-      <c r="J2">
-        <v>35457543</v>
-      </c>
-      <c r="K2">
-        <v>34342</v>
-      </c>
-      <c r="L2">
-        <v>34553</v>
-      </c>
-      <c r="M2">
-        <v>4686546</v>
-      </c>
-      <c r="N2">
-        <v>5558654</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>9900</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3">
-        <v>49543</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="PROSPECT" sheetId="1" r:id="rId1"/>
+    <sheet name="STUDENTS" sheetId="2" r:id="rId2"/>
+    <sheet name="EX-STUDENT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -31,19 +33,40 @@
     <t>location</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>data_source</t>
-  </si>
-  <si>
-    <t>company_name</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>remark</t>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>registration_fee</t>
+  </si>
+  <si>
+    <t>tutorial_fee</t>
+  </si>
+  <si>
+    <t>course_fee</t>
+  </si>
+  <si>
+    <t>payment_1</t>
+  </si>
+  <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>remark_1</t>
+  </si>
+  <si>
+    <t>remark_2</t>
   </si>
   <si>
     <t>extra1</t>
@@ -55,79 +78,37 @@
     <t>extra3</t>
   </si>
   <si>
-    <t>Joel Wolske</t>
-  </si>
-  <si>
-    <t>Josh Biden</t>
-  </si>
-  <si>
-    <t>Timothy Ojo</t>
-  </si>
-  <si>
-    <t>David Boris</t>
+    <t>date_created</t>
+  </si>
+  <si>
+    <t>Joel Adewole</t>
   </si>
   <si>
     <t>joeladewole3@gmail.com</t>
   </si>
   <si>
-    <t>josh@hideen.com</t>
-  </si>
-  <si>
-    <t>tojo@gmail.com</t>
-  </si>
-  <si>
-    <t>davebo@yahoo.com</t>
-  </si>
-  <si>
-    <t>705957589</t>
-  </si>
-  <si>
-    <t>859685804</t>
-  </si>
-  <si>
-    <t>90893393823</t>
-  </si>
-  <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>Ibadan</t>
+    <t>7059575819</t>
   </si>
   <si>
     <t>San Francisco ,USA</t>
   </si>
   <si>
-    <t>ICT</t>
-  </si>
-  <si>
-    <t>Elect</t>
-  </si>
-  <si>
-    <t>FRSC</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Not-Interested</t>
-  </si>
-  <si>
-    <t>Interested</t>
-  </si>
-  <si>
-    <t>Good, to have with us</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>This guy said he will pay asap</t>
+    <t>2002-02-22</t>
+  </si>
+  <si>
+    <t>IPOI, IOK, KNIC</t>
+  </si>
+  <si>
+    <t>Fair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,13 +461,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,109 +519,94 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>8537493</v>
+      </c>
+      <c r="I2">
+        <v>343554</v>
+      </c>
+      <c r="J2">
+        <v>35457543</v>
+      </c>
+      <c r="K2">
+        <v>34342</v>
+      </c>
+      <c r="L2">
+        <v>34553</v>
+      </c>
+      <c r="M2">
+        <v>4686546</v>
+      </c>
+      <c r="N2">
+        <v>30702102</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="U2" s="2">
+        <v>44180.62985083868</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="PROSPECT" sheetId="1" r:id="rId1"/>
-    <sheet name="STUDENTS" sheetId="2" r:id="rId2"/>
-    <sheet name="EX-STUDENT" sheetId="3" r:id="rId3"/>
+    <sheet name="EX-STUDENT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -33,40 +31,25 @@
     <t>location</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
     <t>courses</t>
   </si>
   <si>
-    <t>registration_fee</t>
-  </si>
-  <si>
-    <t>tutorial_fee</t>
-  </si>
-  <si>
-    <t>course_fee</t>
-  </si>
-  <si>
-    <t>payment_1</t>
-  </si>
-  <si>
-    <t>payment_2</t>
-  </si>
-  <si>
-    <t>payment_3</t>
-  </si>
-  <si>
     <t>balance</t>
   </si>
   <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>remark_1</t>
-  </si>
-  <si>
-    <t>remark_2</t>
+    <t>results</t>
+  </si>
+  <si>
+    <t>referral_name</t>
+  </si>
+  <si>
+    <t>referral_number</t>
+  </si>
+  <si>
+    <t>referral_email</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
   <si>
     <t>extra1</t>
@@ -81,25 +64,31 @@
     <t>date_created</t>
   </si>
   <si>
-    <t>Joel Adewole</t>
-  </si>
-  <si>
-    <t>joeladewole3@gmail.com</t>
-  </si>
-  <si>
-    <t>7059575819</t>
-  </si>
-  <si>
-    <t>San Francisco ,USA</t>
-  </si>
-  <si>
-    <t>2002-02-22</t>
-  </si>
-  <si>
-    <t>IPOI, IOK, KNIC</t>
-  </si>
-  <si>
-    <t>Fair</t>
+    <t>Jaye</t>
+  </si>
+  <si>
+    <t>Emeka</t>
+  </si>
+  <si>
+    <t>j.yekini@agridriveltd.com</t>
+  </si>
+  <si>
+    <t>aallenworld@gmail.com</t>
+  </si>
+  <si>
+    <t>7086446308</t>
+  </si>
+  <si>
+    <t>8091274601</t>
+  </si>
+  <si>
+    <t>Ibadan</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -461,25 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,85 +505,108 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>22198951</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44195.61012698025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>8537493</v>
-      </c>
-      <c r="I2">
-        <v>343554</v>
-      </c>
-      <c r="J2">
-        <v>35457543</v>
-      </c>
-      <c r="K2">
-        <v>34342</v>
-      </c>
-      <c r="L2">
-        <v>34553</v>
-      </c>
-      <c r="M2">
-        <v>4686546</v>
-      </c>
-      <c r="N2">
-        <v>30702102</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2">
-        <v>44180.62985083868</v>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>44195.60738381101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="EX-STUDENT" sheetId="1" r:id="rId1"/>
+    <sheet name="PROSPECT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -31,22 +31,19 @@
     <t>location</t>
   </si>
   <si>
+    <t>data_source</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
     <t>courses</t>
   </si>
   <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>referral_name</t>
-  </si>
-  <si>
-    <t>referral_number</t>
-  </si>
-  <si>
-    <t>referral_email</t>
+    <t>status</t>
   </si>
   <si>
     <t>remark</t>
@@ -64,31 +61,55 @@
     <t>date_created</t>
   </si>
   <si>
-    <t>Jaye</t>
-  </si>
-  <si>
-    <t>Emeka</t>
-  </si>
-  <si>
-    <t>j.yekini@agridriveltd.com</t>
-  </si>
-  <si>
-    <t>aallenworld@gmail.com</t>
-  </si>
-  <si>
-    <t>7086446308</t>
-  </si>
-  <si>
-    <t>8091274601</t>
-  </si>
-  <si>
-    <t>Ibadan</t>
-  </si>
-  <si>
-    <t>Abuja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Fuad</t>
+  </si>
+  <si>
+    <t>Shehu</t>
+  </si>
+  <si>
+    <t>Treasy-Bi</t>
+  </si>
+  <si>
+    <t>ifuad.ma@gmail.com</t>
+  </si>
+  <si>
+    <t>shehusalisu@yahoo.com</t>
+  </si>
+  <si>
+    <t>treasybi.ventures@gmail.com</t>
+  </si>
+  <si>
+    <t>'+233546557400</t>
+  </si>
+  <si>
+    <t>8037867746</t>
+  </si>
+  <si>
+    <t>8023228472</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Zaria</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>AfCFTA Seminar</t>
+  </si>
+  <si>
+    <t>Shifaa Agribusiness</t>
+  </si>
+  <si>
+    <t>Ahmadu Bello University Zaria</t>
+  </si>
+  <si>
+    <t>Treasy-Bi Ventures</t>
+  </si>
+  <si>
+    <t>Intreseted</t>
   </si>
 </sst>
 </file>
@@ -450,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,108 +523,92 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>22198951</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44195.61012698025</v>
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44195.59906706742</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44195.59905913715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="2">
-        <v>44195.60738381101</v>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44195.5990542748</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/data/newCDMS.xlsx
+++ b/app/static/data/newCDMS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -61,49 +61,373 @@
     <t>date_created</t>
   </si>
   <si>
-    <t>Fuad</t>
-  </si>
-  <si>
-    <t>Shehu</t>
+    <t>Bode</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>OLASUNWON</t>
+  </si>
+  <si>
+    <t>Oluwaseun</t>
+  </si>
+  <si>
+    <t>Olufemi</t>
+  </si>
+  <si>
+    <t>Bamidele</t>
+  </si>
+  <si>
+    <t>Benedicta</t>
+  </si>
+  <si>
+    <t>Dr Teju</t>
+  </si>
+  <si>
+    <t>Ibem</t>
+  </si>
+  <si>
+    <t>Ngozi</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Adeola</t>
+  </si>
+  <si>
+    <t>Chuma</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>Teslim</t>
+  </si>
+  <si>
+    <t>Mohammad Shafiul</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>Adaora</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>Oludare</t>
+  </si>
+  <si>
+    <t>Seun</t>
+  </si>
+  <si>
+    <t>SAHEED</t>
+  </si>
+  <si>
+    <t>Chukwuka</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Chidinma</t>
   </si>
   <si>
     <t>Treasy-Bi</t>
   </si>
   <si>
-    <t>ifuad.ma@gmail.com</t>
-  </si>
-  <si>
-    <t>shehusalisu@yahoo.com</t>
+    <t>Ifeyinwa Evelyn</t>
+  </si>
+  <si>
+    <t>bodeawelewa@yahoo.com</t>
+  </si>
+  <si>
+    <t>ismurahmat1@gmail.com</t>
+  </si>
+  <si>
+    <t>tolaniseun@gmail.com</t>
+  </si>
+  <si>
+    <t>seunodelade@gmail.com</t>
+  </si>
+  <si>
+    <t>saintleo0@gmail.com</t>
+  </si>
+  <si>
+    <t>tradeacademy@3timpex.com</t>
+  </si>
+  <si>
+    <t>benie555amirize@gmail.com</t>
+  </si>
+  <si>
+    <t>tbolujoko2005@gmail.com</t>
+  </si>
+  <si>
+    <t>ibidika@yahoo.com</t>
+  </si>
+  <si>
+    <t>ngozionwughara@gmail.com</t>
+  </si>
+  <si>
+    <t>aliwilliamsng@yahoo.com</t>
+  </si>
+  <si>
+    <t>ubogu.michael@gmail.com</t>
+  </si>
+  <si>
+    <t>adeola.fadakinte@gmail.com</t>
+  </si>
+  <si>
+    <t>soniokeke22@yahoo.com</t>
+  </si>
+  <si>
+    <t>viviannechimezie@gmail.com</t>
+  </si>
+  <si>
+    <t>Bethelfavour@gmail.com</t>
+  </si>
+  <si>
+    <t>adekeyeolufemi@gmail.com</t>
+  </si>
+  <si>
+    <t>aftrapatexports@gmail.com</t>
+  </si>
+  <si>
+    <t>alammsc04@gmail.com</t>
+  </si>
+  <si>
+    <t>chicmaury@gmail.com</t>
+  </si>
+  <si>
+    <t>anwono@yahoo.com</t>
+  </si>
+  <si>
+    <t>zainab.obagun@kcc.com</t>
+  </si>
+  <si>
+    <t>Mroludaretalabi@yahoo.com</t>
+  </si>
+  <si>
+    <t>imperium.innovations@gmail.com</t>
+  </si>
+  <si>
+    <t>saheedwellington@gmail.com</t>
+  </si>
+  <si>
+    <t>jonyiwe@polarisbanklimited.com</t>
+  </si>
+  <si>
+    <t>alabiultimate@gmail.com</t>
+  </si>
+  <si>
+    <t>cuzondu@yahoo.com</t>
   </si>
   <si>
     <t>treasybi.ventures@gmail.com</t>
   </si>
   <si>
-    <t>'+233546557400</t>
-  </si>
-  <si>
-    <t>8037867746</t>
+    <t>autotriptravels@yahoo.com</t>
+  </si>
+  <si>
+    <t>8028554323</t>
+  </si>
+  <si>
+    <t>8036636719</t>
+  </si>
+  <si>
+    <t>8132576845</t>
+  </si>
+  <si>
+    <t>8063453324</t>
+  </si>
+  <si>
+    <t>8097189594</t>
+  </si>
+  <si>
+    <t>8036522946</t>
+  </si>
+  <si>
+    <t>8146937044</t>
+  </si>
+  <si>
+    <t>'+234 7062335600</t>
+  </si>
+  <si>
+    <t>8114646388</t>
+  </si>
+  <si>
+    <t>8036670135</t>
+  </si>
+  <si>
+    <t>8030945869</t>
+  </si>
+  <si>
+    <t>8067448313</t>
+  </si>
+  <si>
+    <t>8023977512</t>
+  </si>
+  <si>
+    <t>7040001832</t>
+  </si>
+  <si>
+    <t>8035652602</t>
+  </si>
+  <si>
+    <t>2348142338897</t>
+  </si>
+  <si>
+    <t>8136047754</t>
+  </si>
+  <si>
+    <t>'+2348084226906</t>
+  </si>
+  <si>
+    <t>'+2347059170938</t>
+  </si>
+  <si>
+    <t>O8183352650</t>
+  </si>
+  <si>
+    <t>8033046082</t>
+  </si>
+  <si>
+    <t>7011175847</t>
+  </si>
+  <si>
+    <t>2348038156309</t>
+  </si>
+  <si>
+    <t>8167856931</t>
+  </si>
+  <si>
+    <t>8099549095</t>
+  </si>
+  <si>
+    <t>8024941330</t>
+  </si>
+  <si>
+    <t>812899665</t>
+  </si>
+  <si>
+    <t>8033543542</t>
   </si>
   <si>
     <t>8023228472</t>
   </si>
   <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>Zaria</t>
+    <t>7088652321</t>
   </si>
   <si>
     <t>Lagos</t>
   </si>
   <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>Lagos State</t>
+  </si>
+  <si>
+    <t>Lagos ii</t>
+  </si>
+  <si>
     <t>AfCFTA Seminar</t>
   </si>
   <si>
-    <t>Shifaa Agribusiness</t>
-  </si>
-  <si>
-    <t>Ahmadu Bello University Zaria</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Portagte Logistics Limited</t>
+  </si>
+  <si>
+    <t>MBH POWER LTD</t>
+  </si>
+  <si>
+    <t>RUCHIM LTD</t>
+  </si>
+  <si>
+    <t>Hydia Projects Ltd.</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>3T Impex</t>
+  </si>
+  <si>
+    <t>Firstridge Enterprise</t>
+  </si>
+  <si>
+    <t>Ruch Investment and Manufacturing Ltd</t>
+  </si>
+  <si>
+    <t>Trade world</t>
+  </si>
+  <si>
+    <t>Farolonac Integrated Ltd.</t>
+  </si>
+  <si>
+    <t>TULARISEN GLOBAL RESOURCES AND LOGISTICS LIMITED</t>
+  </si>
+  <si>
+    <t>Micmann</t>
+  </si>
+  <si>
+    <t>Juldaven Organics</t>
+  </si>
+  <si>
+    <t>Zenith Bank Plc</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Owanbe</t>
+  </si>
+  <si>
+    <t>AFTRAPAT GLOBAL EXPORTS LIMITED</t>
+  </si>
+  <si>
+    <t>Naijabangla Limited</t>
+  </si>
+  <si>
+    <t>NETWAPP</t>
+  </si>
+  <si>
+    <t>Nigerian Shippers' Council</t>
+  </si>
+  <si>
+    <t>Kimberly Clark</t>
+  </si>
+  <si>
+    <t>TALION GROUP</t>
+  </si>
+  <si>
+    <t>Imperium Innovations</t>
+  </si>
+  <si>
+    <t>STANBIC</t>
+  </si>
+  <si>
+    <t>Polaris Bank</t>
+  </si>
+  <si>
+    <t>Offshore consult</t>
+  </si>
+  <si>
+    <t>Bank</t>
   </si>
   <si>
     <t>Treasy-Bi Ventures</t>
@@ -471,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,89 +850,890 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="O2" s="2">
-        <v>44195.59906706742</v>
+        <v>44195.59871222631</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="O3" s="2">
-        <v>44195.59905913715</v>
+        <v>44195.59871410171</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44195.59872226392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44195.59872379162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44195.59874228014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44195.59874412084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44195.59876231946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44195.59876432225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44195.59877007767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44195.59877218465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44195.59877567668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44195.5987776099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="2">
+        <v>44195.59877969381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44195.59878227548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="2">
+        <v>44195.59878432477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44195.59879040198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44195.59879250895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44195.59879652479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" s="2">
+        <v>44195.59880380672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="2">
+        <v>44195.59881776856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="2">
+        <v>44195.59883417304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="2">
+        <v>44195.5989145753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" s="2">
+        <v>44195.59892056065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="2">
+        <v>44195.59892813194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" s="2">
+        <v>44195.5989458911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="2">
+        <v>44195.59898988418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="2">
+        <v>44195.59901331542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="2">
+        <v>44195.59903965308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" s="2">
         <v>44195.5990542748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44195.62100930281</v>
       </c>
     </row>
   </sheetData>
